--- a/Code/Results/Cases/Case_7_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_4/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.402016670179535</v>
+        <v>1.161207584106904</v>
       </c>
       <c r="C2">
-        <v>0.262516432669031</v>
+        <v>0.11918369565457</v>
       </c>
       <c r="D2">
-        <v>0.06052309749052398</v>
+        <v>0.0699658309173401</v>
       </c>
       <c r="E2">
-        <v>0.04587145782580926</v>
+        <v>0.07675859600700718</v>
       </c>
       <c r="F2">
-        <v>2.23329020587046</v>
+        <v>0.6746043222081681</v>
       </c>
       <c r="G2">
-        <v>0.0008107455147391418</v>
+        <v>0.0008190404351931904</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5293773061948741</v>
+        <v>0.9284288657635216</v>
       </c>
       <c r="L2">
-        <v>0.2926330959384131</v>
+        <v>0.2467539116512398</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.826818066220056</v>
+        <v>2.149866875507428</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.082745050098936</v>
+        <v>1.009231407086276</v>
       </c>
       <c r="C3">
-        <v>0.2339079513149329</v>
+        <v>0.1201466971544001</v>
       </c>
       <c r="D3">
-        <v>0.0617290620974984</v>
+        <v>0.06542982372281614</v>
       </c>
       <c r="E3">
-        <v>0.04379043196643551</v>
+        <v>0.07197474608016208</v>
       </c>
       <c r="F3">
-        <v>2.033160981405928</v>
+        <v>0.6492829919228313</v>
       </c>
       <c r="G3">
-        <v>0.0008187992441630373</v>
+        <v>0.0008231012644864255</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4569043181500589</v>
+        <v>0.8088205663661654</v>
       </c>
       <c r="L3">
-        <v>0.2569368500670635</v>
+        <v>0.2174410105513118</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.674584171311665</v>
+        <v>2.117123583452724</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.889801887470071</v>
+        <v>0.916314961505833</v>
       </c>
       <c r="C4">
-        <v>0.2164386903290136</v>
+        <v>0.1207833739911024</v>
       </c>
       <c r="D4">
-        <v>0.06252133811213412</v>
+        <v>0.06263177400423103</v>
       </c>
       <c r="E4">
-        <v>0.04257862876852059</v>
+        <v>0.06915057445797501</v>
       </c>
       <c r="F4">
-        <v>1.914377009429998</v>
+        <v>0.634983026691998</v>
       </c>
       <c r="G4">
-        <v>0.0008238767208644241</v>
+        <v>0.0008256774120044589</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4130115967000165</v>
+        <v>0.7354738374040579</v>
       </c>
       <c r="L4">
-        <v>0.2354779726713474</v>
+        <v>0.1996665190342526</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.584476045423912</v>
+        <v>2.101142970982806</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.811853317202207</v>
+        <v>0.8785339720154752</v>
       </c>
       <c r="C5">
-        <v>0.209336007185783</v>
+        <v>0.1210541765037227</v>
       </c>
       <c r="D5">
-        <v>0.06285641219527349</v>
+        <v>0.06148808657256666</v>
       </c>
       <c r="E5">
-        <v>0.04210023665723384</v>
+        <v>0.06802666807929114</v>
       </c>
       <c r="F5">
-        <v>1.866901671334588</v>
+        <v>0.6294543105477644</v>
       </c>
       <c r="G5">
-        <v>0.0008259806234430749</v>
+        <v>0.0008267484031369523</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3952552428780152</v>
+        <v>0.7055964998677808</v>
       </c>
       <c r="L5">
-        <v>0.2268357589479848</v>
+        <v>0.1924744063942825</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.54852174291517</v>
+        <v>2.095622747811262</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.798948160791127</v>
+        <v>0.8722650220287562</v>
       </c>
       <c r="C6">
-        <v>0.2081573669384795</v>
+        <v>0.1210998269761987</v>
       </c>
       <c r="D6">
-        <v>0.06291276644102339</v>
+        <v>0.06129796337364724</v>
       </c>
       <c r="E6">
-        <v>0.04202169960689339</v>
+        <v>0.06784163104765639</v>
       </c>
       <c r="F6">
-        <v>1.859071829427108</v>
+        <v>0.6285538824640042</v>
       </c>
       <c r="G6">
-        <v>0.0008263321174435421</v>
+        <v>0.0008269275308274124</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3923140717184594</v>
+        <v>0.7006357982430274</v>
       </c>
       <c r="L6">
-        <v>0.2254065560764076</v>
+        <v>0.1912831052838158</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.542595559617695</v>
+        <v>2.094764760800388</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.888748029355725</v>
+        <v>0.9158051183799785</v>
       </c>
       <c r="C7">
-        <v>0.2163428456909315</v>
+        <v>0.1207869802432953</v>
       </c>
       <c r="D7">
-        <v>0.06252580859780821</v>
+        <v>0.0626163641089903</v>
       </c>
       <c r="E7">
-        <v>0.04257211600588207</v>
+        <v>0.06913530978235016</v>
       </c>
       <c r="F7">
-        <v>1.913733100881359</v>
+        <v>0.6349072746683575</v>
       </c>
       <c r="G7">
-        <v>0.0008239049520909694</v>
+        <v>0.0008256917694911217</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4127716286439593</v>
+        <v>0.7350708669690391</v>
       </c>
       <c r="L7">
-        <v>0.2353610222335476</v>
+        <v>0.1995693232195634</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.583988155411518</v>
+        <v>2.101064564536813</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.291227439367162</v>
+        <v>1.108713268702161</v>
       </c>
       <c r="C8">
-        <v>0.2526271100403221</v>
+        <v>0.1195062783268028</v>
       </c>
       <c r="D8">
-        <v>0.06092764748457924</v>
+        <v>0.06840436530657001</v>
       </c>
       <c r="E8">
-        <v>0.04513950579376846</v>
+        <v>0.07508472841997715</v>
       </c>
       <c r="F8">
-        <v>2.163372769996045</v>
+        <v>0.6656053298735571</v>
       </c>
       <c r="G8">
-        <v>0.0008134958785340762</v>
+        <v>0.0008204236583668466</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5042489379222488</v>
+        <v>0.8871614644791919</v>
       </c>
       <c r="L8">
-        <v>0.2802217036821872</v>
+        <v>0.2365972076724887</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.773579107326313</v>
+        <v>2.13769328156593</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.110022441680144</v>
+        <v>1.490981348670914</v>
       </c>
       <c r="C9">
-        <v>0.3249540688873935</v>
+        <v>0.1173581352943138</v>
       </c>
       <c r="D9">
-        <v>0.05824579064072566</v>
+        <v>0.079662870603606</v>
       </c>
       <c r="E9">
-        <v>0.05075488472367518</v>
+        <v>0.08772027619419731</v>
       </c>
       <c r="F9">
-        <v>2.690391962352351</v>
+        <v>0.7364216982911529</v>
       </c>
       <c r="G9">
-        <v>0.0007940611470834232</v>
+        <v>0.0008107318777545437</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.689553213609031</v>
+        <v>1.186713030744102</v>
       </c>
       <c r="L9">
-        <v>0.3724783366708948</v>
+        <v>0.3112322735679527</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.176064666126877</v>
+        <v>2.24439374167747</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.737436069014791</v>
+        <v>1.775500863698653</v>
       </c>
       <c r="C10">
-        <v>0.3794532491180007</v>
+        <v>0.1160063101619926</v>
       </c>
       <c r="D10">
-        <v>0.05661625210273868</v>
+        <v>0.08789554224323126</v>
       </c>
       <c r="E10">
-        <v>0.05532343470401457</v>
+        <v>0.09769975553848198</v>
       </c>
       <c r="F10">
-        <v>3.108180023602074</v>
+        <v>0.7959891603818647</v>
       </c>
       <c r="G10">
-        <v>0.0007802644461284387</v>
+        <v>0.0008039744743474068</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.83104262196089</v>
+        <v>1.408443525318063</v>
       </c>
       <c r="L10">
-        <v>0.4438775398404431</v>
+        <v>0.3676715383457605</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.496719099836241</v>
+        <v>2.347228101633107</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.030491049699037</v>
+        <v>1.906031402037996</v>
       </c>
       <c r="C11">
-        <v>0.4047097881692423</v>
+        <v>0.1154417478798706</v>
       </c>
       <c r="D11">
-        <v>0.05596626305606733</v>
+        <v>0.09163649422481512</v>
       </c>
       <c r="E11">
-        <v>0.05752058362940105</v>
+        <v>0.1024159661560482</v>
       </c>
       <c r="F11">
-        <v>3.306867447096806</v>
+        <v>0.8249789705544401</v>
       </c>
       <c r="G11">
-        <v>0.000774063694191832</v>
+        <v>0.000800973006445985</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8970187800520506</v>
+        <v>1.509879281131418</v>
       </c>
       <c r="L11">
-        <v>0.4774024907658259</v>
+        <v>0.3937844817424718</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.649608740816788</v>
+        <v>2.400077380344726</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.142755185902558</v>
+        <v>1.955644639595306</v>
       </c>
       <c r="C12">
-        <v>0.4143568485750961</v>
+        <v>0.1152353276313605</v>
       </c>
       <c r="D12">
-        <v>0.05573498247962405</v>
+        <v>0.09305286073272612</v>
       </c>
       <c r="E12">
-        <v>0.05837183604601748</v>
+        <v>0.1042294874303167</v>
       </c>
       <c r="F12">
-        <v>3.383536650439623</v>
+        <v>0.8362515108360498</v>
       </c>
       <c r="G12">
-        <v>0.0007717237329665763</v>
+        <v>0.0007998463136746265</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9222769859619433</v>
+        <v>1.548390452182218</v>
       </c>
       <c r="L12">
-        <v>0.4902724588252738</v>
+        <v>0.4037436957079734</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.708667118519415</v>
+        <v>2.42103113665317</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.118516372971271</v>
+        <v>1.944950918802419</v>
       </c>
       <c r="C13">
-        <v>0.412275210439816</v>
+        <v>0.1152794542137556</v>
       </c>
       <c r="D13">
-        <v>0.05578410176273962</v>
+        <v>0.09274782624616051</v>
       </c>
       <c r="E13">
-        <v>0.05818761092012181</v>
+        <v>0.1038376489325117</v>
       </c>
       <c r="F13">
-        <v>3.366957664993464</v>
+        <v>0.8338102815832826</v>
       </c>
       <c r="G13">
-        <v>0.0007722273709252319</v>
+        <v>0.0008000885357447017</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9168242320506295</v>
+        <v>1.540091652621982</v>
       </c>
       <c r="L13">
-        <v>0.4874924823704987</v>
+        <v>0.4015955217876126</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.695893499025715</v>
+        <v>2.416475385719622</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.039700034728639</v>
+        <v>1.910109267369563</v>
       </c>
       <c r="C14">
-        <v>0.4055016944744523</v>
+        <v>0.1154246171769273</v>
       </c>
       <c r="D14">
-        <v>0.0559469268729913</v>
+        <v>0.0917530225084775</v>
       </c>
       <c r="E14">
-        <v>0.05759021785823393</v>
+        <v>0.1025645993544657</v>
       </c>
       <c r="F14">
-        <v>3.313145226928299</v>
+        <v>0.8259003269815679</v>
       </c>
       <c r="G14">
-        <v>0.0007738710380467519</v>
+        <v>0.0008008801175304547</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.899091022539281</v>
+        <v>1.513045514470633</v>
       </c>
       <c r="L14">
-        <v>0.4784576558903098</v>
+        <v>0.3946023666459837</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.654443268215942</v>
+        <v>2.401781993707516</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.991596940409806</v>
+        <v>1.88879253171217</v>
       </c>
       <c r="C15">
-        <v>0.4013640415504653</v>
+        <v>0.1155144969058952</v>
       </c>
       <c r="D15">
-        <v>0.05604865248417923</v>
+        <v>0.09114365450584216</v>
       </c>
       <c r="E15">
-        <v>0.05722687107580882</v>
+        <v>0.1017884817942658</v>
       </c>
       <c r="F15">
-        <v>3.280375887882911</v>
+        <v>0.8210943331686025</v>
       </c>
       <c r="G15">
-        <v>0.0007748788037842406</v>
+        <v>0.0008013662569758924</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8882660258203003</v>
+        <v>1.496492502415521</v>
       </c>
       <c r="L15">
-        <v>0.4729471087897252</v>
+        <v>0.3903283187515996</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.629210048232466</v>
+        <v>2.39290650468817</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.718453836424942</v>
+        <v>1.76699470657681</v>
       </c>
       <c r="C16">
-        <v>0.3778133541336786</v>
+        <v>0.1160442297148663</v>
       </c>
       <c r="D16">
-        <v>0.05666070933655831</v>
+        <v>0.08765100779883284</v>
       </c>
       <c r="E16">
-        <v>0.05518241558958081</v>
+        <v>0.09739527741021448</v>
       </c>
       <c r="F16">
-        <v>3.095384684237928</v>
+        <v>0.7941345823398365</v>
       </c>
       <c r="G16">
-        <v>0.0007806709731725944</v>
+        <v>0.0008041720419879263</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8267668836945035</v>
+        <v>1.401827406370558</v>
       </c>
       <c r="L16">
-        <v>0.4417096608021183</v>
+        <v>0.3659744692598679</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.486881313428285</v>
+        <v>2.343902118023806</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.552975400402545</v>
+        <v>1.692575481849161</v>
       </c>
       <c r="C17">
-        <v>0.3634955736943368</v>
+        <v>0.1163821924155499</v>
       </c>
       <c r="D17">
-        <v>0.05706071895749076</v>
+        <v>0.08550755940018462</v>
       </c>
       <c r="E17">
-        <v>0.05396010433244314</v>
+        <v>0.09474692083227865</v>
       </c>
       <c r="F17">
-        <v>2.984236999671367</v>
+        <v>0.7780958946435277</v>
       </c>
       <c r="G17">
-        <v>0.000784241771096053</v>
+        <v>0.0008059115058670909</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7894806657875932</v>
+        <v>1.343911497979434</v>
       </c>
       <c r="L17">
-        <v>0.422830660140491</v>
+        <v>0.3511518126215094</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.401468422866571</v>
+        <v>2.315440945977258</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.458502987504232</v>
+        <v>1.649873503524503</v>
       </c>
       <c r="C18">
-        <v>0.3553030060517415</v>
+        <v>0.1165813146198893</v>
       </c>
       <c r="D18">
-        <v>0.05729926951015329</v>
+        <v>0.08427429347552362</v>
       </c>
       <c r="E18">
-        <v>0.05326811127228304</v>
+        <v>0.09324012719772412</v>
       </c>
       <c r="F18">
-        <v>2.921107780806807</v>
+        <v>0.7690475278472348</v>
       </c>
       <c r="G18">
-        <v>0.0007863028813639069</v>
+        <v>0.0008069188580470403</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.768183481149876</v>
+        <v>1.310652254915595</v>
       </c>
       <c r="L18">
-        <v>0.4120686891356655</v>
+        <v>0.3426669832337552</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.352991958403734</v>
+        <v>2.299637751697361</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.426632128181268</v>
+        <v>1.635432109570957</v>
       </c>
       <c r="C19">
-        <v>0.3525360102875652</v>
+        <v>0.1166495437042698</v>
       </c>
       <c r="D19">
-        <v>0.05738144583399674</v>
+        <v>0.08385665021445021</v>
       </c>
       <c r="E19">
-        <v>0.05303565068919092</v>
+        <v>0.09273271671000671</v>
       </c>
       <c r="F19">
-        <v>2.899865332537672</v>
+        <v>0.7660135851720327</v>
       </c>
       <c r="G19">
-        <v>0.0007870020658825323</v>
+        <v>0.0008072611236504988</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7609969755893715</v>
+        <v>1.29939973678259</v>
       </c>
       <c r="L19">
-        <v>0.4084407869256665</v>
+        <v>0.3398009408246736</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.336686092411085</v>
+        <v>2.294382435684014</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.570516440807125</v>
+        <v>1.700486798869235</v>
       </c>
       <c r="C20">
-        <v>0.3650152026996096</v>
+        <v>0.1163457248124544</v>
       </c>
       <c r="D20">
-        <v>0.05701724836724509</v>
+        <v>0.08573577329138971</v>
       </c>
       <c r="E20">
-        <v>0.05408906332203145</v>
+        <v>0.09502712267457625</v>
       </c>
       <c r="F20">
-        <v>2.99598477070225</v>
+        <v>0.7797847977637389</v>
       </c>
       <c r="G20">
-        <v>0.0007838609185348221</v>
+        <v>0.0008057256308871219</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7934341490870622</v>
+        <v>1.350071191990878</v>
       </c>
       <c r="L20">
-        <v>0.4248301829591838</v>
+        <v>0.3527254356866507</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.410492374772815</v>
+        <v>2.318411534819461</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.062813624795353</v>
+        <v>1.920337891594244</v>
       </c>
       <c r="C21">
-        <v>0.4074888489108162</v>
+        <v>0.115381778328647</v>
       </c>
       <c r="D21">
-        <v>0.05589868289813538</v>
+        <v>0.09204522440974472</v>
       </c>
       <c r="E21">
-        <v>0.05776514611470063</v>
+        <v>0.1029377575261492</v>
       </c>
       <c r="F21">
-        <v>3.328910789740632</v>
+        <v>0.8282154850674459</v>
       </c>
       <c r="G21">
-        <v>0.0007733880560127274</v>
+        <v>0.0008006473465244985</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9042918788788512</v>
+        <v>1.520986767844221</v>
       </c>
       <c r="L21">
-        <v>0.4811064483891272</v>
+        <v>0.3966544393797022</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.666585343996047</v>
+        <v>2.406071695977687</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.392188640384063</v>
+        <v>2.06511010750728</v>
       </c>
       <c r="C22">
-        <v>0.4357405704613768</v>
+        <v>0.1147947899214827</v>
       </c>
       <c r="D22">
-        <v>0.0552552332599987</v>
+        <v>0.09616753361350305</v>
       </c>
       <c r="E22">
-        <v>0.0602810176419446</v>
+        <v>0.1082698014723924</v>
       </c>
       <c r="F22">
-        <v>3.554941958124857</v>
+        <v>0.8615973507914703</v>
       </c>
       <c r="G22">
-        <v>0.0007665892969348498</v>
+        <v>0.0007973858162100333</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9783676717579226</v>
+        <v>1.633280085346541</v>
       </c>
       <c r="L22">
-        <v>0.5189188480219968</v>
+        <v>0.4257813351362074</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.840817967952205</v>
+        <v>2.468882175772961</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.21562669530698</v>
+        <v>1.987733959798277</v>
       </c>
       <c r="C23">
-        <v>0.4206110631955653</v>
+        <v>0.1151040985642595</v>
       </c>
       <c r="D23">
-        <v>0.05558999600894765</v>
+        <v>0.09396737593797866</v>
       </c>
       <c r="E23">
-        <v>0.05892709938403229</v>
+        <v>0.1054083937607082</v>
       </c>
       <c r="F23">
-        <v>3.433463090028283</v>
+        <v>0.8436146495985355</v>
       </c>
       <c r="G23">
-        <v>0.0007702147168280963</v>
+        <v>0.0007991214860920977</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9386678218254758</v>
+        <v>1.573286795954829</v>
       </c>
       <c r="L23">
-        <v>0.498634222966686</v>
+        <v>0.4101949131724609</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.747143179693694</v>
+        <v>2.434830163304525</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.562584084438413</v>
+        <v>1.696909837012669</v>
       </c>
       <c r="C24">
-        <v>0.3643280584053343</v>
+        <v>0.1163621968025055</v>
       </c>
       <c r="D24">
-        <v>0.05703687482473896</v>
+        <v>0.08563260083452207</v>
       </c>
       <c r="E24">
-        <v>0.05403072769989592</v>
+        <v>0.09490039443037901</v>
       </c>
       <c r="F24">
-        <v>2.990671215700786</v>
+        <v>0.7790207090911991</v>
       </c>
       <c r="G24">
-        <v>0.0007840330761851487</v>
+        <v>0.0008058096422038234</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7916463489909376</v>
+        <v>1.347286279211573</v>
       </c>
       <c r="L24">
-        <v>0.4239259145117416</v>
+        <v>0.3520138863021032</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.406410699620153</v>
+        <v>2.317066793937045</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.884598390576969</v>
+        <v>1.387018860891203</v>
       </c>
       <c r="C25">
-        <v>0.3052001392847075</v>
+        <v>0.117899894728037</v>
       </c>
       <c r="D25">
-        <v>0.05891669568317326</v>
+        <v>0.07662529577716271</v>
       </c>
       <c r="E25">
-        <v>0.04916498972584726</v>
+        <v>0.08418782059464647</v>
       </c>
       <c r="F25">
-        <v>2.543059163730064</v>
+        <v>0.7160214436628607</v>
       </c>
       <c r="G25">
-        <v>0.0007992251598232129</v>
+        <v>0.0008132879911907914</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6386223332671719</v>
+        <v>1.10545225373275</v>
       </c>
       <c r="L25">
-        <v>0.3469645494485434</v>
+        <v>0.2907880250882897</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.063292952015601</v>
+        <v>2.21147934391476</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.161207584106904</v>
+        <v>1.147110348361878</v>
       </c>
       <c r="C2">
-        <v>0.11918369565457</v>
+        <v>0.1371318692125314</v>
       </c>
       <c r="D2">
-        <v>0.0699658309173401</v>
+        <v>0.08757269488233277</v>
       </c>
       <c r="E2">
-        <v>0.07675859600700718</v>
+        <v>0.08771231987194383</v>
       </c>
       <c r="F2">
-        <v>0.6746043222081681</v>
+        <v>0.3878992145455413</v>
       </c>
       <c r="G2">
-        <v>0.0008190404351931904</v>
+        <v>0.2887898547784289</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0004038789101442619</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2776642130354361</v>
       </c>
       <c r="K2">
-        <v>0.9284288657635216</v>
+        <v>0.3042301187927237</v>
       </c>
       <c r="L2">
-        <v>0.2467539116512398</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.003610917015351</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2801770466219295</v>
       </c>
       <c r="O2">
-        <v>2.149866875507428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.141422915451088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.009231407086276</v>
+        <v>0.9995365048954739</v>
       </c>
       <c r="C3">
-        <v>0.1201466971544001</v>
+        <v>0.1333977398139581</v>
       </c>
       <c r="D3">
-        <v>0.06542982372281614</v>
+        <v>0.07816041674642094</v>
       </c>
       <c r="E3">
-        <v>0.07197474608016208</v>
+        <v>0.08106529856641131</v>
       </c>
       <c r="F3">
-        <v>0.6492829919228313</v>
+        <v>0.3746959908004968</v>
       </c>
       <c r="G3">
-        <v>0.0008231012644864255</v>
+        <v>0.2841705912465997</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001041273459868375</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2801051363550258</v>
       </c>
       <c r="K3">
-        <v>0.8088205663661654</v>
+        <v>0.3088075876087082</v>
       </c>
       <c r="L3">
-        <v>0.2174410105513118</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.881364240834273</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2471159214555882</v>
       </c>
       <c r="O3">
-        <v>2.117123583452724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.136452470760986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.916314961505833</v>
+        <v>0.9088095458545808</v>
       </c>
       <c r="C4">
-        <v>0.1207833739911024</v>
+        <v>0.1310857475706229</v>
       </c>
       <c r="D4">
-        <v>0.06263177400423103</v>
+        <v>0.07235739180590173</v>
       </c>
       <c r="E4">
-        <v>0.06915057445797501</v>
+        <v>0.07697717531334547</v>
       </c>
       <c r="F4">
-        <v>0.634983026691998</v>
+        <v>0.367208531319811</v>
       </c>
       <c r="G4">
-        <v>0.0008256774120044589</v>
+        <v>0.2818750566799437</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001601070648117653</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2819558742163224</v>
       </c>
       <c r="K4">
-        <v>0.7354738374040579</v>
+        <v>0.3120663909423591</v>
       </c>
       <c r="L4">
-        <v>0.1996665190342526</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8061351204646314</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2268042813754363</v>
       </c>
       <c r="O4">
-        <v>2.101142970982806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.135276501427469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8785339720154752</v>
+        <v>0.8718028576119821</v>
       </c>
       <c r="C5">
-        <v>0.1210541765037227</v>
+        <v>0.1301385860396564</v>
       </c>
       <c r="D5">
-        <v>0.06148808657256666</v>
+        <v>0.06998625516174428</v>
       </c>
       <c r="E5">
-        <v>0.06802666807929114</v>
+        <v>0.07530902204645784</v>
       </c>
       <c r="F5">
-        <v>0.6294543105477644</v>
+        <v>0.3643069104988683</v>
       </c>
       <c r="G5">
-        <v>0.0008267484031369523</v>
+        <v>0.2810701502674746</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00186955606610606</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2827962247391511</v>
       </c>
       <c r="K5">
-        <v>0.7055964998677808</v>
+        <v>0.3135037949921227</v>
       </c>
       <c r="L5">
-        <v>0.1924744063942825</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7754317814199965</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.218522267892908</v>
       </c>
       <c r="O5">
-        <v>2.095622747811262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.135252558701353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8722650220287562</v>
+        <v>0.8656556735820971</v>
       </c>
       <c r="C6">
-        <v>0.1210998269761987</v>
+        <v>0.1299810035085258</v>
       </c>
       <c r="D6">
-        <v>0.06129796337364724</v>
+        <v>0.06959213562481636</v>
       </c>
       <c r="E6">
-        <v>0.06784163104765639</v>
+        <v>0.07503187892839946</v>
       </c>
       <c r="F6">
-        <v>0.6285538824640042</v>
+        <v>0.3638339567482447</v>
       </c>
       <c r="G6">
-        <v>0.0008269275308274124</v>
+        <v>0.2809442257846513</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001916518610576512</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2829409009712407</v>
       </c>
       <c r="K6">
-        <v>0.7006357982430274</v>
+        <v>0.3137489891273972</v>
       </c>
       <c r="L6">
-        <v>0.1912831052838158</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7703305645997602</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2171467002831946</v>
       </c>
       <c r="O6">
-        <v>2.094764760800388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.135275611287469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9158051183799785</v>
+        <v>0.9083106083420205</v>
       </c>
       <c r="C7">
-        <v>0.1207869802432953</v>
+        <v>0.1310729943043114</v>
       </c>
       <c r="D7">
-        <v>0.0626163641089903</v>
+        <v>0.07232544002953745</v>
       </c>
       <c r="E7">
-        <v>0.06913530978235016</v>
+        <v>0.07695468760169533</v>
       </c>
       <c r="F7">
-        <v>0.6349072746683575</v>
+        <v>0.3671688013896102</v>
       </c>
       <c r="G7">
-        <v>0.0008256917694911217</v>
+        <v>0.2818636798908187</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001604530694010453</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2819668616648343</v>
       </c>
       <c r="K7">
-        <v>0.7350708669690391</v>
+        <v>0.3120853375244259</v>
       </c>
       <c r="L7">
-        <v>0.1995693232195634</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.805721239734595</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2266926092833614</v>
       </c>
       <c r="O7">
-        <v>2.101064564536813</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.13527435641582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.108713268702161</v>
+        <v>1.096247477907724</v>
       </c>
       <c r="C8">
-        <v>0.1195062783268028</v>
+        <v>0.1358482210699989</v>
       </c>
       <c r="D8">
-        <v>0.06840436530657001</v>
+        <v>0.0843320660653859</v>
       </c>
       <c r="E8">
-        <v>0.07508472841997715</v>
+        <v>0.08542153891845672</v>
       </c>
       <c r="F8">
-        <v>0.6656053298735571</v>
+        <v>0.3832144069172898</v>
       </c>
       <c r="G8">
-        <v>0.0008204236583668466</v>
+        <v>0.2870815802790503</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0005874781920950367</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2784313418751907</v>
       </c>
       <c r="K8">
-        <v>0.8871614644791919</v>
+        <v>0.3057133852509537</v>
       </c>
       <c r="L8">
-        <v>0.2365972076724887</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9614926422742087</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2687789123160513</v>
       </c>
       <c r="O8">
-        <v>2.13769328156593</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.139309678563379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.490981348670914</v>
+        <v>1.46415602747274</v>
       </c>
       <c r="C9">
-        <v>0.1173581352943138</v>
+        <v>0.1450689330060868</v>
       </c>
       <c r="D9">
-        <v>0.079662870603606</v>
+        <v>0.1077059943347294</v>
       </c>
       <c r="E9">
-        <v>0.08772027619419731</v>
+        <v>0.1019947182516354</v>
       </c>
       <c r="F9">
-        <v>0.7364216982911529</v>
+        <v>0.4198849215154681</v>
       </c>
       <c r="G9">
-        <v>0.0008107318777545437</v>
+        <v>0.3018590786541608</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.183825147139551E-05</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2744015882439257</v>
       </c>
       <c r="K9">
-        <v>1.186713030744102</v>
+        <v>0.2969282175877197</v>
       </c>
       <c r="L9">
-        <v>0.3112322735679527</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.265842320578457</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3513058122447603</v>
       </c>
       <c r="O9">
-        <v>2.24439374167747</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.162879466953044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.775500863698653</v>
+        <v>1.730050887974102</v>
       </c>
       <c r="C10">
-        <v>0.1160063101619926</v>
+        <v>0.1537953941077532</v>
       </c>
       <c r="D10">
-        <v>0.08789554224323126</v>
+        <v>0.1259570610605181</v>
       </c>
       <c r="E10">
-        <v>0.09769975553848198</v>
+        <v>0.1089492512246863</v>
       </c>
       <c r="F10">
-        <v>0.7959891603818647</v>
+        <v>0.4446449784348445</v>
       </c>
       <c r="G10">
-        <v>0.0008039744743474068</v>
+        <v>0.3104471976357672</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0007360905276074803</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2706106021723471</v>
       </c>
       <c r="K10">
-        <v>1.408443525318063</v>
+        <v>0.2885076295473787</v>
       </c>
       <c r="L10">
-        <v>0.3676715383457605</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.493330861454496</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3943993360383189</v>
       </c>
       <c r="O10">
-        <v>2.347228101633107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.173609399377753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.906031402037996</v>
+        <v>1.81183157447694</v>
       </c>
       <c r="C11">
-        <v>0.1154417478798706</v>
+        <v>0.1785038113839619</v>
       </c>
       <c r="D11">
-        <v>0.09163649422481512</v>
+        <v>0.1448110630808515</v>
       </c>
       <c r="E11">
-        <v>0.1024159661560482</v>
+        <v>0.07350814382749782</v>
       </c>
       <c r="F11">
-        <v>0.8249789705544401</v>
+        <v>0.4074958124038588</v>
       </c>
       <c r="G11">
-        <v>0.000800973006445985</v>
+        <v>0.2698437603232264</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01926158357789376</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.246123516213693</v>
       </c>
       <c r="K11">
-        <v>1.509879281131418</v>
+        <v>0.2490604583117317</v>
       </c>
       <c r="L11">
-        <v>0.3937844817424718</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.634823495569918</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2749796678582044</v>
       </c>
       <c r="O11">
-        <v>2.400077380344726</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.03643712448725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.955644639595306</v>
+        <v>1.823911604815265</v>
       </c>
       <c r="C12">
-        <v>0.1152353276313605</v>
+        <v>0.2017589210354771</v>
       </c>
       <c r="D12">
-        <v>0.09305286073272612</v>
+        <v>0.1575980832133723</v>
       </c>
       <c r="E12">
-        <v>0.1042294874303167</v>
+        <v>0.0513834670320712</v>
       </c>
       <c r="F12">
-        <v>0.8362515108360498</v>
+        <v>0.3716255375079669</v>
       </c>
       <c r="G12">
-        <v>0.0007998463136746265</v>
+        <v>0.2356138143572224</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05782853978451641</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2269876944385487</v>
       </c>
       <c r="K12">
-        <v>1.548390452182218</v>
+        <v>0.2204325697197014</v>
       </c>
       <c r="L12">
-        <v>0.4037436957079734</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.708119636569933</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1844515968727407</v>
       </c>
       <c r="O12">
-        <v>2.42103113665317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.923861810161128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.944950918802419</v>
+        <v>1.782905352821388</v>
       </c>
       <c r="C13">
-        <v>0.1152794542137556</v>
+        <v>0.2248382639684792</v>
       </c>
       <c r="D13">
-        <v>0.09274782624616051</v>
+        <v>0.1663139009920798</v>
       </c>
       <c r="E13">
-        <v>0.1038376489325117</v>
+        <v>0.03815464656900858</v>
       </c>
       <c r="F13">
-        <v>0.8338102815832826</v>
+        <v>0.3344694504925911</v>
       </c>
       <c r="G13">
-        <v>0.0008000885357447017</v>
+        <v>0.2040915625329021</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1134103839372784</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2107072649535411</v>
       </c>
       <c r="K13">
-        <v>1.540091652621982</v>
+        <v>0.1982061889551705</v>
       </c>
       <c r="L13">
-        <v>0.4015955217876126</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.73240564888232</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1112376420225161</v>
       </c>
       <c r="O13">
-        <v>2.416475385719622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.8229159780297977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.910109267369563</v>
+        <v>1.730297325891627</v>
       </c>
       <c r="C14">
-        <v>0.1154246171769273</v>
+        <v>0.2412063344980169</v>
       </c>
       <c r="D14">
-        <v>0.0917530225084775</v>
+        <v>0.1705790574366546</v>
       </c>
       <c r="E14">
-        <v>0.1025645993544657</v>
+        <v>0.03416099019238736</v>
       </c>
       <c r="F14">
-        <v>0.8259003269815679</v>
+        <v>0.308192596783968</v>
       </c>
       <c r="G14">
-        <v>0.0008008801175304547</v>
+        <v>0.1836545607825855</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1626282536913095</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2007690847148922</v>
       </c>
       <c r="K14">
-        <v>1.513045514470633</v>
+        <v>0.1859831205886309</v>
       </c>
       <c r="L14">
-        <v>0.3946023666459837</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.72714447640351</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07082021299488872</v>
       </c>
       <c r="O14">
-        <v>2.401781993707516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.7587182337930471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.88879253171217</v>
+        <v>1.706323342255359</v>
       </c>
       <c r="C15">
-        <v>0.1155144969058952</v>
+        <v>0.2445245334589856</v>
       </c>
       <c r="D15">
-        <v>0.09114365450584216</v>
+        <v>0.1706297485362427</v>
       </c>
       <c r="E15">
-        <v>0.1017884817942658</v>
+        <v>0.0338759368333692</v>
       </c>
       <c r="F15">
-        <v>0.8210943331686025</v>
+        <v>0.3014520125147087</v>
       </c>
       <c r="G15">
-        <v>0.0008013662569758924</v>
+        <v>0.1790248203014571</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1750832335308559</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1988627648121906</v>
       </c>
       <c r="K15">
-        <v>1.496492502415521</v>
+        <v>0.1839835385922921</v>
       </c>
       <c r="L15">
-        <v>0.3903283187515996</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.715065184522985</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06224886714885969</v>
       </c>
       <c r="O15">
-        <v>2.39290650468817</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7448764443740856</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.76699470657681</v>
+        <v>1.600838947003155</v>
       </c>
       <c r="C16">
-        <v>0.1160442297148663</v>
+        <v>0.2349977179338509</v>
       </c>
       <c r="D16">
-        <v>0.08765100779883284</v>
+        <v>0.1606328580728302</v>
       </c>
       <c r="E16">
-        <v>0.09739527741021448</v>
+        <v>0.03385179732684884</v>
       </c>
       <c r="F16">
-        <v>0.7941345823398365</v>
+        <v>0.2981490338073911</v>
       </c>
       <c r="G16">
-        <v>0.0008041720419879263</v>
+        <v>0.1814345897200909</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1620851258413012</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2034945119281062</v>
       </c>
       <c r="K16">
-        <v>1.401827406370558</v>
+        <v>0.1916061027764862</v>
       </c>
       <c r="L16">
-        <v>0.3659744692598679</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.610650394502414</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06086772323681799</v>
       </c>
       <c r="O16">
-        <v>2.343902118023806</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7594906999935631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.692575481849161</v>
+        <v>1.54797023095648</v>
       </c>
       <c r="C17">
-        <v>0.1163821924155499</v>
+        <v>0.2188637080638074</v>
       </c>
       <c r="D17">
-        <v>0.08550755940018462</v>
+        <v>0.1507227055844567</v>
       </c>
       <c r="E17">
-        <v>0.09474692083227865</v>
+        <v>0.03509765633346196</v>
       </c>
       <c r="F17">
-        <v>0.7780958946435277</v>
+        <v>0.3095982327731974</v>
       </c>
       <c r="G17">
-        <v>0.0008059115058670909</v>
+        <v>0.1940816994307824</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1241848986296645</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2123471765829166</v>
       </c>
       <c r="K17">
-        <v>1.343911497979434</v>
+        <v>0.2038384773256112</v>
       </c>
       <c r="L17">
-        <v>0.3511518126215094</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.533648141837432</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07914050610819601</v>
       </c>
       <c r="O17">
-        <v>2.315440945977258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8047242373434642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.649873503524503</v>
+        <v>1.533973351919542</v>
       </c>
       <c r="C18">
-        <v>0.1165813146198893</v>
+        <v>0.1970935485644674</v>
       </c>
       <c r="D18">
-        <v>0.08427429347552362</v>
+        <v>0.1400373762983804</v>
       </c>
       <c r="E18">
-        <v>0.09324012719772412</v>
+        <v>0.04211607814877194</v>
       </c>
       <c r="F18">
-        <v>0.7690475278472348</v>
+        <v>0.3354839453150831</v>
       </c>
       <c r="G18">
-        <v>0.0008069188580470403</v>
+        <v>0.2179563481029163</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07133816168990847</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2262361746367105</v>
       </c>
       <c r="K18">
-        <v>1.310652254915595</v>
+        <v>0.2228858274860652</v>
       </c>
       <c r="L18">
-        <v>0.3426669832337552</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.472015260457169</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1261647632360976</v>
       </c>
       <c r="O18">
-        <v>2.299637751697361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.8843629812777749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.635432109570957</v>
+        <v>1.552072763647203</v>
       </c>
       <c r="C19">
-        <v>0.1166495437042698</v>
+        <v>0.174985682555743</v>
       </c>
       <c r="D19">
-        <v>0.08385665021445021</v>
+        <v>0.1298648473673012</v>
       </c>
       <c r="E19">
-        <v>0.09273271671000671</v>
+        <v>0.06006842323117922</v>
       </c>
       <c r="F19">
-        <v>0.7660135851720327</v>
+        <v>0.3721331629383897</v>
       </c>
       <c r="G19">
-        <v>0.0008072611236504988</v>
+        <v>0.2508794357627266</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02616686410674873</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2439033054469846</v>
       </c>
       <c r="K19">
-        <v>1.29939973678259</v>
+        <v>0.2483579784073982</v>
       </c>
       <c r="L19">
-        <v>0.3398009408246736</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.427954982400564</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2078594938757448</v>
       </c>
       <c r="O19">
-        <v>2.294382435684014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.9911476740687277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.700486798869235</v>
+        <v>1.660040588213036</v>
       </c>
       <c r="C20">
-        <v>0.1163457248124544</v>
+        <v>0.1515786613613912</v>
       </c>
       <c r="D20">
-        <v>0.08573577329138971</v>
+        <v>0.1212135056515109</v>
       </c>
       <c r="E20">
-        <v>0.09502712267457625</v>
+        <v>0.1068973917051039</v>
       </c>
       <c r="F20">
-        <v>0.7797847977637389</v>
+        <v>0.4376398785466904</v>
       </c>
       <c r="G20">
-        <v>0.0008057256308871219</v>
+        <v>0.3077335762641908</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0004607681477604153</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.271349270328713</v>
       </c>
       <c r="K20">
-        <v>1.350071191990878</v>
+        <v>0.2903464813074343</v>
       </c>
       <c r="L20">
-        <v>0.3527254356866507</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.433773248872455</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3823401217583751</v>
       </c>
       <c r="O20">
-        <v>2.318411534819461</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.169284250776698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.920337891594244</v>
+        <v>1.87109693988819</v>
       </c>
       <c r="C21">
-        <v>0.115381778328647</v>
+        <v>0.1551381881158207</v>
       </c>
       <c r="D21">
-        <v>0.09204522440974472</v>
+        <v>0.1334191347725096</v>
       </c>
       <c r="E21">
-        <v>0.1029377575261492</v>
+        <v>0.1203551402843921</v>
       </c>
       <c r="F21">
-        <v>0.8282154850674459</v>
+        <v>0.4668394244020959</v>
       </c>
       <c r="G21">
-        <v>0.0008006473465244985</v>
+        <v>0.3237994792080769</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001190102297511375</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2733727118282587</v>
       </c>
       <c r="K21">
-        <v>1.520986767844221</v>
+        <v>0.2916291944439209</v>
       </c>
       <c r="L21">
-        <v>0.3966544393797022</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.601817573109628</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4428093679807716</v>
       </c>
       <c r="O21">
-        <v>2.406071695977687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.207928438619817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.06511010750728</v>
+        <v>2.006928153260731</v>
       </c>
       <c r="C22">
-        <v>0.1147947899214827</v>
+        <v>0.1584782703191081</v>
       </c>
       <c r="D22">
-        <v>0.09616753361350305</v>
+        <v>0.1419769863078955</v>
       </c>
       <c r="E22">
-        <v>0.1082698014723924</v>
+        <v>0.1264943891907997</v>
       </c>
       <c r="F22">
-        <v>0.8615973507914703</v>
+        <v>0.4837720822841831</v>
       </c>
       <c r="G22">
-        <v>0.0007973858162100333</v>
+        <v>0.3322342856498679</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001943685281709184</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2736904401394824</v>
       </c>
       <c r="K22">
-        <v>1.633280085346541</v>
+        <v>0.2907200330417261</v>
       </c>
       <c r="L22">
-        <v>0.4257813351362074</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.713840859654908</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4734037913171534</v>
       </c>
       <c r="O22">
-        <v>2.468882175772961</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.226694922344507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.987733959798277</v>
+        <v>1.934414832020167</v>
       </c>
       <c r="C23">
-        <v>0.1151040985642595</v>
+        <v>0.1566962480019143</v>
       </c>
       <c r="D23">
-        <v>0.09396737593797866</v>
+        <v>0.1374097548993092</v>
       </c>
       <c r="E23">
-        <v>0.1054083937607082</v>
+        <v>0.1232161986658475</v>
       </c>
       <c r="F23">
-        <v>0.8436146495985355</v>
+        <v>0.4746595443070234</v>
       </c>
       <c r="G23">
-        <v>0.0007991214860920977</v>
+        <v>0.3276666729219215</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001520031443955183</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2734828672691307</v>
       </c>
       <c r="K23">
-        <v>1.573286795954829</v>
+        <v>0.2911558393542677</v>
       </c>
       <c r="L23">
-        <v>0.4101949131724609</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.654044066759013</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4570677880415843</v>
       </c>
       <c r="O23">
-        <v>2.434830163304525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.216460408089759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.696909837012669</v>
+        <v>1.660118051661755</v>
       </c>
       <c r="C24">
-        <v>0.1163621968025055</v>
+        <v>0.1499311146881723</v>
       </c>
       <c r="D24">
-        <v>0.08563260083452207</v>
+        <v>0.1201033860823628</v>
       </c>
       <c r="E24">
-        <v>0.09490039443037901</v>
+        <v>0.1108307595751867</v>
       </c>
       <c r="F24">
-        <v>0.7790207090911991</v>
+        <v>0.441749820424846</v>
       </c>
       <c r="G24">
-        <v>0.0008058096422038234</v>
+        <v>0.3117682021670376</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0003710768373139661</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2735118279714399</v>
       </c>
       <c r="K24">
-        <v>1.347286279211573</v>
+        <v>0.2938653336830939</v>
       </c>
       <c r="L24">
-        <v>0.3520138863021032</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.427704407722814</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3953401247537585</v>
       </c>
       <c r="O24">
-        <v>2.317066793937045</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.182362527001359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.387018860891203</v>
+        <v>1.364650432461445</v>
       </c>
       <c r="C25">
-        <v>0.117899894728037</v>
+        <v>0.1425884400281774</v>
       </c>
       <c r="D25">
-        <v>0.07662529577716271</v>
+        <v>0.1013982241647398</v>
       </c>
       <c r="E25">
-        <v>0.08418782059464647</v>
+        <v>0.09751090824836339</v>
       </c>
       <c r="F25">
-        <v>0.7160214436628607</v>
+        <v>0.4093648905076179</v>
       </c>
       <c r="G25">
-        <v>0.0008132879911907914</v>
+        <v>0.2973376798001084</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.574406415773339E-06</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2751648790702106</v>
       </c>
       <c r="K25">
-        <v>1.10545225373275</v>
+        <v>0.2988853707425072</v>
       </c>
       <c r="L25">
-        <v>0.2907880250882897</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.183592057201651</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3289667802167884</v>
       </c>
       <c r="O25">
-        <v>2.21147934391476</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.154714778658359</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.147110348361878</v>
+        <v>1.135433680407743</v>
       </c>
       <c r="C2">
-        <v>0.1371318692125314</v>
+        <v>0.1301040700206428</v>
       </c>
       <c r="D2">
-        <v>0.08757269488233277</v>
+        <v>0.09023037066018702</v>
       </c>
       <c r="E2">
-        <v>0.08771231987194383</v>
+        <v>0.08339480971195101</v>
       </c>
       <c r="F2">
-        <v>0.3878992145455413</v>
+        <v>0.3655049353356716</v>
       </c>
       <c r="G2">
-        <v>0.2887898547784289</v>
+        <v>0.2501160704220737</v>
       </c>
       <c r="H2">
-        <v>0.0004038789101442619</v>
+        <v>0.0002305135973224015</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2776642130354361</v>
+        <v>0.2961388217563439</v>
       </c>
       <c r="K2">
-        <v>0.3042301187927237</v>
+        <v>0.2774959115017097</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1455208362734162</v>
       </c>
       <c r="M2">
-        <v>1.003610917015351</v>
+        <v>0.07059515892839663</v>
       </c>
       <c r="N2">
-        <v>0.2801770466219295</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.022104633680954</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2874790104713298</v>
       </c>
       <c r="Q2">
-        <v>1.141422915451088</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.067263071972008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9995365048954739</v>
+        <v>0.9920374622472252</v>
       </c>
       <c r="C3">
-        <v>0.1333977398139581</v>
+        <v>0.1232580428753494</v>
       </c>
       <c r="D3">
-        <v>0.07816041674642094</v>
+        <v>0.07992365673157309</v>
       </c>
       <c r="E3">
-        <v>0.08106529856641131</v>
+        <v>0.07750519534426914</v>
       </c>
       <c r="F3">
-        <v>0.3746959908004968</v>
+        <v>0.3548705350575148</v>
       </c>
       <c r="G3">
-        <v>0.2841705912465997</v>
+        <v>0.2483855546709322</v>
       </c>
       <c r="H3">
-        <v>0.001041273459868375</v>
+        <v>0.0006988964253537011</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2801051363550258</v>
+        <v>0.2972787771755705</v>
       </c>
       <c r="K3">
-        <v>0.3088075876087082</v>
+        <v>0.2832700605165286</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1509195056249411</v>
       </c>
       <c r="M3">
-        <v>0.881364240834273</v>
+        <v>0.07080655392825896</v>
       </c>
       <c r="N3">
-        <v>0.2471159214555882</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8960763418553483</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2539140680908503</v>
       </c>
       <c r="Q3">
-        <v>1.136452470760986</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.068592888212791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9088095458545808</v>
+        <v>0.9037589870577278</v>
       </c>
       <c r="C4">
-        <v>0.1310857475706229</v>
+        <v>0.1190771730456532</v>
       </c>
       <c r="D4">
-        <v>0.07235739180590173</v>
+        <v>0.0735857422974604</v>
       </c>
       <c r="E4">
-        <v>0.07697717531334547</v>
+        <v>0.07387142415836578</v>
       </c>
       <c r="F4">
-        <v>0.367208531319811</v>
+        <v>0.3488507305721384</v>
       </c>
       <c r="G4">
-        <v>0.2818750566799437</v>
+        <v>0.2478485108187911</v>
       </c>
       <c r="H4">
-        <v>0.001601070648117653</v>
+        <v>0.001128945227427791</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2819558742163224</v>
+        <v>0.2981657115934127</v>
       </c>
       <c r="K4">
-        <v>0.3120663909423591</v>
+        <v>0.287165694715469</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1544395360918926</v>
       </c>
       <c r="M4">
-        <v>0.8061351204646314</v>
+        <v>0.07150307319471683</v>
       </c>
       <c r="N4">
-        <v>0.2268042813754363</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8185736098262737</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2333043399237624</v>
       </c>
       <c r="Q4">
-        <v>1.135276501427469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.070946338826744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8718028576119821</v>
+        <v>0.8677221124205801</v>
       </c>
       <c r="C5">
-        <v>0.1301385860396564</v>
+        <v>0.1173788556047342</v>
       </c>
       <c r="D5">
-        <v>0.06998625516174428</v>
+        <v>0.07100022646602611</v>
       </c>
       <c r="E5">
-        <v>0.07530902204645784</v>
+        <v>0.07238582831655549</v>
       </c>
       <c r="F5">
-        <v>0.3643069104988683</v>
+        <v>0.3465204301275051</v>
       </c>
       <c r="G5">
-        <v>0.2810701502674746</v>
+        <v>0.2477560493965854</v>
       </c>
       <c r="H5">
-        <v>0.00186955606610606</v>
+        <v>0.001338331490035038</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2827962247391511</v>
+        <v>0.2985730669127378</v>
       </c>
       <c r="K5">
-        <v>0.3135037949921227</v>
+        <v>0.2888386601807866</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1559255759703362</v>
       </c>
       <c r="M5">
-        <v>0.7754317814199965</v>
+        <v>0.07192764478036917</v>
       </c>
       <c r="N5">
-        <v>0.218522267892908</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7869567748169004</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2249039834479163</v>
       </c>
       <c r="Q5">
-        <v>1.135252558701353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.072277873245312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8656556735820971</v>
+        <v>0.861734314781728</v>
       </c>
       <c r="C6">
-        <v>0.1299810035085258</v>
+        <v>0.1170971714284192</v>
       </c>
       <c r="D6">
-        <v>0.06959213562481636</v>
+        <v>0.07057072635462447</v>
       </c>
       <c r="E6">
-        <v>0.07503187892839946</v>
+        <v>0.07213884471291188</v>
       </c>
       <c r="F6">
-        <v>0.3638339567482447</v>
+        <v>0.3461407500277289</v>
       </c>
       <c r="G6">
-        <v>0.2809442257846513</v>
+        <v>0.2477481652295381</v>
       </c>
       <c r="H6">
-        <v>0.001916518610576512</v>
+        <v>0.001375113359888935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2829409009712407</v>
+        <v>0.2986434501289281</v>
       </c>
       <c r="K6">
-        <v>0.3137489891273972</v>
+        <v>0.289121541563917</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1561754482171303</v>
       </c>
       <c r="M6">
-        <v>0.7703305645997602</v>
+        <v>0.07200659425970457</v>
       </c>
       <c r="N6">
-        <v>0.2171467002831946</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7817046839714976</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2235089626975082</v>
       </c>
       <c r="Q6">
-        <v>1.135275611287469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.072521070534904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9083106083420205</v>
+        <v>0.9033912105984143</v>
       </c>
       <c r="C7">
-        <v>0.1310729943043114</v>
+        <v>0.1189556866752355</v>
       </c>
       <c r="D7">
-        <v>0.07232544002953745</v>
+        <v>0.07368560915321609</v>
       </c>
       <c r="E7">
-        <v>0.07695468760169533</v>
+        <v>0.07386666525956187</v>
       </c>
       <c r="F7">
-        <v>0.3671688013896102</v>
+        <v>0.3481459341754913</v>
       </c>
       <c r="G7">
-        <v>0.2818636798908187</v>
+        <v>0.2498312559621851</v>
       </c>
       <c r="H7">
-        <v>0.001604530694010453</v>
+        <v>0.001133603900373759</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2819668616648343</v>
+        <v>0.2950603908086507</v>
       </c>
       <c r="K7">
-        <v>0.3120853375244259</v>
+        <v>0.2868258842574001</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1542722688686418</v>
       </c>
       <c r="M7">
-        <v>0.805721239734595</v>
+        <v>0.07142135627749813</v>
       </c>
       <c r="N7">
-        <v>0.2266926092833614</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8179572090469378</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2331475369048377</v>
       </c>
       <c r="Q7">
-        <v>1.13527435641582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.068951542106404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.096247477907724</v>
+        <v>1.086430382637985</v>
       </c>
       <c r="C8">
-        <v>0.1358482210699989</v>
+        <v>0.1274059317348133</v>
       </c>
       <c r="D8">
-        <v>0.0843320660653859</v>
+        <v>0.08713407005306095</v>
       </c>
       <c r="E8">
-        <v>0.08542153891845672</v>
+        <v>0.08142071915868954</v>
       </c>
       <c r="F8">
-        <v>0.3832144069172898</v>
+        <v>0.3595084411329026</v>
       </c>
       <c r="G8">
-        <v>0.2870815802790503</v>
+        <v>0.2560412086942563</v>
       </c>
       <c r="H8">
-        <v>0.0005874781920950367</v>
+        <v>0.0003648365144124366</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2784313418751907</v>
+        <v>0.2864655403489422</v>
       </c>
       <c r="K8">
-        <v>0.3057133852509537</v>
+        <v>0.278239937346644</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1467916933436229</v>
       </c>
       <c r="M8">
-        <v>0.9614926422742087</v>
+        <v>0.07020972358860966</v>
       </c>
       <c r="N8">
-        <v>0.2687789123160513</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.978038465539953</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2757606624613373</v>
       </c>
       <c r="Q8">
-        <v>1.139309678563379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.060798002469227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.46415602747274</v>
+        <v>1.443313566669929</v>
       </c>
       <c r="C9">
-        <v>0.1450689330060868</v>
+        <v>0.1445263272247459</v>
       </c>
       <c r="D9">
-        <v>0.1077059943347294</v>
+        <v>0.1129590616085778</v>
       </c>
       <c r="E9">
-        <v>0.1019947182516354</v>
+        <v>0.09605858931604061</v>
       </c>
       <c r="F9">
-        <v>0.4198849215154681</v>
+        <v>0.3885312619853423</v>
       </c>
       <c r="G9">
-        <v>0.3018590786541608</v>
+        <v>0.2653357372786473</v>
       </c>
       <c r="H9">
-        <v>2.183825147139551E-05</v>
+        <v>5.776337575635893E-05</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2744015882439257</v>
+        <v>0.2820805655910448</v>
       </c>
       <c r="K9">
-        <v>0.2969282175877197</v>
+        <v>0.2656205347964757</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1344375495664032</v>
       </c>
       <c r="M9">
-        <v>1.265842320578457</v>
+        <v>0.0727252454027596</v>
       </c>
       <c r="N9">
-        <v>0.3513058122447603</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.291871187248887</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3595535348519832</v>
       </c>
       <c r="Q9">
-        <v>1.162879466953044</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.064963586731423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.730050887974102</v>
+        <v>1.701733058659983</v>
       </c>
       <c r="C10">
-        <v>0.1537953941077532</v>
+        <v>0.1588264137211155</v>
       </c>
       <c r="D10">
-        <v>0.1259570610605181</v>
+        <v>0.133852486948328</v>
       </c>
       <c r="E10">
-        <v>0.1089492512246863</v>
+        <v>0.101944149212585</v>
       </c>
       <c r="F10">
-        <v>0.4446449784348445</v>
+        <v>0.4040469119750156</v>
       </c>
       <c r="G10">
-        <v>0.3104471976357672</v>
+        <v>0.2825337071531138</v>
       </c>
       <c r="H10">
-        <v>0.0007360905276074803</v>
+        <v>0.0007979629890306761</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2706106021723471</v>
+        <v>0.2616791642276155</v>
       </c>
       <c r="K10">
-        <v>0.2885076295473787</v>
+        <v>0.2528531781041785</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1244328710850624</v>
       </c>
       <c r="M10">
-        <v>1.493330861454496</v>
+        <v>0.07528439724259428</v>
       </c>
       <c r="N10">
-        <v>0.3943993360383189</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.524832232593326</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.4030537886656305</v>
       </c>
       <c r="Q10">
-        <v>1.173609399377753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.051155446703106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.81183157447694</v>
+        <v>1.786672543520581</v>
       </c>
       <c r="C11">
-        <v>0.1785038113839619</v>
+        <v>0.1857133159602995</v>
       </c>
       <c r="D11">
-        <v>0.1448110630808515</v>
+        <v>0.1548876387662972</v>
       </c>
       <c r="E11">
-        <v>0.07350814382749782</v>
+        <v>0.06861134677007463</v>
       </c>
       <c r="F11">
-        <v>0.4074958124038588</v>
+        <v>0.3636930248565022</v>
       </c>
       <c r="G11">
-        <v>0.2698437603232264</v>
+        <v>0.2710401597525731</v>
       </c>
       <c r="H11">
-        <v>0.01926158357789376</v>
+        <v>0.0192910376374904</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.246123516213693</v>
+        <v>0.215965988770904</v>
       </c>
       <c r="K11">
-        <v>0.2490604583117317</v>
+        <v>0.2166742006983995</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1099117785898933</v>
       </c>
       <c r="M11">
-        <v>1.634823495569918</v>
+        <v>0.06385300923865422</v>
       </c>
       <c r="N11">
-        <v>0.2749796678582044</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.662175077522335</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2810980393986</v>
       </c>
       <c r="Q11">
-        <v>1.03643712448725</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.9100676550788478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.823911604815265</v>
+        <v>1.802707881149075</v>
       </c>
       <c r="C12">
-        <v>0.2017589210354771</v>
+        <v>0.2089952430533941</v>
       </c>
       <c r="D12">
-        <v>0.1575980832133723</v>
+        <v>0.1684333895461378</v>
       </c>
       <c r="E12">
-        <v>0.0513834670320712</v>
+        <v>0.04806059038238075</v>
       </c>
       <c r="F12">
-        <v>0.3716255375079669</v>
+        <v>0.3296718477471217</v>
       </c>
       <c r="G12">
-        <v>0.2356138143572224</v>
+        <v>0.2500209998260559</v>
       </c>
       <c r="H12">
-        <v>0.05782853978451641</v>
+        <v>0.05784861902583316</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2269876944385487</v>
+        <v>0.1955911455006145</v>
       </c>
       <c r="K12">
-        <v>0.2204325697197014</v>
+        <v>0.1928983781872002</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.101585782787839</v>
       </c>
       <c r="M12">
-        <v>1.708119636569933</v>
+        <v>0.05476445924303341</v>
       </c>
       <c r="N12">
-        <v>0.1844515968727407</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.731165579591078</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.188803407416323</v>
       </c>
       <c r="Q12">
-        <v>0.923861810161128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8071203349017537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.782905352821388</v>
+        <v>1.766132366640164</v>
       </c>
       <c r="C13">
-        <v>0.2248382639684792</v>
+        <v>0.2309100038470291</v>
       </c>
       <c r="D13">
-        <v>0.1663139009920798</v>
+        <v>0.1762834928981363</v>
       </c>
       <c r="E13">
-        <v>0.03815464656900858</v>
+        <v>0.03607959287754081</v>
       </c>
       <c r="F13">
-        <v>0.3344694504925911</v>
+        <v>0.299294389170953</v>
       </c>
       <c r="G13">
-        <v>0.2040915625329021</v>
+        <v>0.2165006129248823</v>
       </c>
       <c r="H13">
-        <v>0.1134103839372784</v>
+        <v>0.1134350646866835</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2107072649535411</v>
+        <v>0.189911932259303</v>
       </c>
       <c r="K13">
-        <v>0.1982061889551705</v>
+        <v>0.176853054707145</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09667381277600473</v>
       </c>
       <c r="M13">
-        <v>1.73240564888232</v>
+        <v>0.04734112892563758</v>
       </c>
       <c r="N13">
-        <v>0.1112376420225161</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.751364033724684</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1143095736283612</v>
       </c>
       <c r="Q13">
-        <v>0.8229159780297977</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.7281708084185112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.730297325891627</v>
+        <v>1.716818437473819</v>
       </c>
       <c r="C14">
-        <v>0.2412063344980169</v>
+        <v>0.245879377894795</v>
       </c>
       <c r="D14">
-        <v>0.1705790574366546</v>
+        <v>0.1791650325081235</v>
       </c>
       <c r="E14">
-        <v>0.03416099019238736</v>
+        <v>0.03278382210609909</v>
       </c>
       <c r="F14">
-        <v>0.308192596783968</v>
+        <v>0.2795306564373234</v>
       </c>
       <c r="G14">
-        <v>0.1836545607825855</v>
+        <v>0.1892998233255412</v>
       </c>
       <c r="H14">
-        <v>0.1626282536913095</v>
+        <v>0.1626577156430358</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2007690847148922</v>
+        <v>0.190641599874251</v>
       </c>
       <c r="K14">
-        <v>0.1859831205886309</v>
+        <v>0.1690279549030151</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09452470547780667</v>
       </c>
       <c r="M14">
-        <v>1.72714447640351</v>
+        <v>0.0430956767384103</v>
       </c>
       <c r="N14">
-        <v>0.07082021299488872</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.74332333550862</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.07321086115882736</v>
       </c>
       <c r="Q14">
-        <v>0.7587182337930471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.6831032555112131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.706323342255359</v>
+        <v>1.69374930908117</v>
       </c>
       <c r="C15">
-        <v>0.2445245334589856</v>
+        <v>0.2487299982893916</v>
       </c>
       <c r="D15">
-        <v>0.1706297485362427</v>
+        <v>0.1785552657646861</v>
       </c>
       <c r="E15">
-        <v>0.0338759368333692</v>
+        <v>0.03265379050002748</v>
       </c>
       <c r="F15">
-        <v>0.3014520125147087</v>
+        <v>0.2751668825348474</v>
       </c>
       <c r="G15">
-        <v>0.1790248203014571</v>
+        <v>0.1809859397678579</v>
       </c>
       <c r="H15">
-        <v>0.1750832335308559</v>
+        <v>0.1751137731258581</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1988627648121906</v>
+        <v>0.1928550484280152</v>
       </c>
       <c r="K15">
-        <v>0.1839835385922921</v>
+        <v>0.1682122561420289</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09440746297978642</v>
       </c>
       <c r="M15">
-        <v>1.715065184522985</v>
+        <v>0.04232683218142874</v>
       </c>
       <c r="N15">
-        <v>0.06224886714885969</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.730628693989246</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.06452111975216468</v>
       </c>
       <c r="Q15">
-        <v>0.7448764443740856</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.6756747991927057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.600838947003155</v>
+        <v>1.589377069828345</v>
       </c>
       <c r="C16">
-        <v>0.2349977179338509</v>
+        <v>0.2382731301167524</v>
       </c>
       <c r="D16">
-        <v>0.1606328580728302</v>
+        <v>0.1659517590163091</v>
       </c>
       <c r="E16">
-        <v>0.03385179732684884</v>
+        <v>0.03268976285431413</v>
       </c>
       <c r="F16">
-        <v>0.2981490338073911</v>
+        <v>0.2788441114003675</v>
       </c>
       <c r="G16">
-        <v>0.1814345897200909</v>
+        <v>0.1665473443105583</v>
       </c>
       <c r="H16">
-        <v>0.1620851258413012</v>
+        <v>0.1621041410421071</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2034945119281062</v>
+        <v>0.2135356200469225</v>
       </c>
       <c r="K16">
-        <v>0.1916061027764862</v>
+        <v>0.1773764717491719</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09810599928974639</v>
       </c>
       <c r="M16">
-        <v>1.610650394502414</v>
+        <v>0.04419809593633417</v>
       </c>
       <c r="N16">
-        <v>0.06086772323681799</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.626657786232869</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.06343567298073438</v>
       </c>
       <c r="Q16">
-        <v>0.7594906999935631</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7066672202351185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.54797023095648</v>
+        <v>1.535816336793516</v>
       </c>
       <c r="C17">
-        <v>0.2188637080638074</v>
+        <v>0.2219217348821871</v>
       </c>
       <c r="D17">
-        <v>0.1507227055844567</v>
+        <v>0.1551406492731218</v>
       </c>
       <c r="E17">
-        <v>0.03509765633346196</v>
+        <v>0.0336240151061209</v>
       </c>
       <c r="F17">
-        <v>0.3095982327731974</v>
+        <v>0.2917160352278856</v>
       </c>
       <c r="G17">
-        <v>0.1940816994307824</v>
+        <v>0.1711880485616746</v>
       </c>
       <c r="H17">
-        <v>0.1241848986296645</v>
+        <v>0.1241871014331082</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2123471765829166</v>
+        <v>0.2296012183081828</v>
       </c>
       <c r="K17">
-        <v>0.2038384773256112</v>
+        <v>0.1886971119866416</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1025357413616304</v>
       </c>
       <c r="M17">
-        <v>1.533648141837432</v>
+        <v>0.04763735334575792</v>
       </c>
       <c r="N17">
-        <v>0.07914050610819601</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.551125435218921</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.0822846400998074</v>
       </c>
       <c r="Q17">
-        <v>0.8047242373434642</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7538666272644576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.533973351919542</v>
+        <v>1.519266187129318</v>
       </c>
       <c r="C18">
-        <v>0.1970935485644674</v>
+        <v>0.2004700148383023</v>
       </c>
       <c r="D18">
-        <v>0.1400373762983804</v>
+        <v>0.144469111002735</v>
       </c>
       <c r="E18">
-        <v>0.04211607814877194</v>
+        <v>0.03982723802988541</v>
       </c>
       <c r="F18">
-        <v>0.3354839453150831</v>
+        <v>0.3155757756871864</v>
       </c>
       <c r="G18">
-        <v>0.2179563481029163</v>
+        <v>0.1891008445879336</v>
       </c>
       <c r="H18">
-        <v>0.07133816168990847</v>
+        <v>0.07133804372739405</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2262361746367105</v>
+        <v>0.2456068578057966</v>
       </c>
       <c r="K18">
-        <v>0.2228858274860652</v>
+        <v>0.2047880365120811</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.108768990081531</v>
       </c>
       <c r="M18">
-        <v>1.472015260457169</v>
+        <v>0.05324460469623737</v>
       </c>
       <c r="N18">
-        <v>0.1261647632360976</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.492359579738832</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1303646487372134</v>
       </c>
       <c r="Q18">
-        <v>0.8843629812777749</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8260077318520445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.552072763647203</v>
+        <v>1.533387046201511</v>
       </c>
       <c r="C19">
-        <v>0.174985682555743</v>
+        <v>0.1786283038517382</v>
       </c>
       <c r="D19">
-        <v>0.1298648473673012</v>
+        <v>0.1348103511925416</v>
       </c>
       <c r="E19">
-        <v>0.06006842323117922</v>
+        <v>0.05636682708365726</v>
       </c>
       <c r="F19">
-        <v>0.3721331629383897</v>
+        <v>0.3477922691000543</v>
       </c>
       <c r="G19">
-        <v>0.2508794357627266</v>
+        <v>0.2164335821566326</v>
       </c>
       <c r="H19">
-        <v>0.02616686410674873</v>
+        <v>0.02618717837557938</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2439033054469846</v>
+        <v>0.2620968389175289</v>
       </c>
       <c r="K19">
-        <v>0.2483579784073982</v>
+        <v>0.2254825907162843</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1166522195913782</v>
       </c>
       <c r="M19">
-        <v>1.427954982400564</v>
+        <v>0.06095150246516212</v>
       </c>
       <c r="N19">
-        <v>0.2078594938757448</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.452120657598527</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2136363659404736</v>
       </c>
       <c r="Q19">
-        <v>0.9911476740687277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.9181999197508759</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.660040588213036</v>
+        <v>1.633327209146358</v>
       </c>
       <c r="C20">
-        <v>0.1515786613613912</v>
+        <v>0.1555144372686783</v>
       </c>
       <c r="D20">
-        <v>0.1212135056515109</v>
+        <v>0.1278877672256868</v>
       </c>
       <c r="E20">
-        <v>0.1068973917051039</v>
+        <v>0.1001249758857128</v>
       </c>
       <c r="F20">
-        <v>0.4376398785466904</v>
+        <v>0.4019052625273432</v>
       </c>
       <c r="G20">
-        <v>0.3077335762641908</v>
+        <v>0.2702538519646183</v>
       </c>
       <c r="H20">
-        <v>0.0004607681477604153</v>
+        <v>0.0005303404869558825</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.271349270328713</v>
+        <v>0.2765804173868531</v>
       </c>
       <c r="K20">
-        <v>0.2903464813074343</v>
+        <v>0.2570858316725726</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1273206419644524</v>
       </c>
       <c r="M20">
-        <v>1.433773248872455</v>
+        <v>0.074855015134073</v>
       </c>
       <c r="N20">
-        <v>0.3823401217583751</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.464510479870341</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3910292110387132</v>
       </c>
       <c r="Q20">
-        <v>1.169284250776698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.060393628807276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.87109693988819</v>
+        <v>1.839761272739167</v>
       </c>
       <c r="C21">
-        <v>0.1551381881158207</v>
+        <v>0.1612117801905839</v>
       </c>
       <c r="D21">
-        <v>0.1334191347725096</v>
+        <v>0.1450280904421817</v>
       </c>
       <c r="E21">
-        <v>0.1203551402843921</v>
+        <v>0.1126224093155166</v>
       </c>
       <c r="F21">
-        <v>0.4668394244020959</v>
+        <v>0.4099697564958902</v>
       </c>
       <c r="G21">
-        <v>0.3237994792080769</v>
+        <v>0.333379399854806</v>
       </c>
       <c r="H21">
-        <v>0.001190102297511375</v>
+        <v>0.001197952583207318</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2733727118282587</v>
+        <v>0.2208580696721825</v>
       </c>
       <c r="K21">
-        <v>0.2916291944439209</v>
+        <v>0.247123483962838</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1198604228379985</v>
       </c>
       <c r="M21">
-        <v>1.601817573109628</v>
+        <v>0.07726124106513055</v>
       </c>
       <c r="N21">
-        <v>0.4428093679807716</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.633879528433312</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4514402122883752</v>
       </c>
       <c r="Q21">
-        <v>1.207928438619817</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.038687534208961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.006928153260731</v>
+        <v>1.97299049116927</v>
       </c>
       <c r="C22">
-        <v>0.1584782703191081</v>
+        <v>0.1659232176000245</v>
       </c>
       <c r="D22">
-        <v>0.1419769863078955</v>
+        <v>0.157112696170941</v>
       </c>
       <c r="E22">
-        <v>0.1264943891907997</v>
+        <v>0.1183372988245033</v>
       </c>
       <c r="F22">
-        <v>0.4837720822841831</v>
+        <v>0.412317886311854</v>
       </c>
       <c r="G22">
-        <v>0.3322342856498679</v>
+        <v>0.3800559685722931</v>
       </c>
       <c r="H22">
-        <v>0.001943685281709184</v>
+        <v>0.001861907440770749</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2736904401394824</v>
+        <v>0.1913032053672801</v>
       </c>
       <c r="K22">
-        <v>0.2907200330417261</v>
+        <v>0.2388040826726012</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1145964260308432</v>
       </c>
       <c r="M22">
-        <v>1.713840859654908</v>
+        <v>0.0782933216439119</v>
       </c>
       <c r="N22">
-        <v>0.4734037913171534</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.746191851676798</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4817715010312043</v>
       </c>
       <c r="Q22">
-        <v>1.226694922344507</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.016272971505728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.934414832020167</v>
+        <v>1.901541412292346</v>
       </c>
       <c r="C23">
-        <v>0.1566962480019143</v>
+        <v>0.1636716200123516</v>
       </c>
       <c r="D23">
-        <v>0.1374097548993092</v>
+        <v>0.1502571058113205</v>
       </c>
       <c r="E23">
-        <v>0.1232161986658475</v>
+        <v>0.1152309235599205</v>
       </c>
       <c r="F23">
-        <v>0.4746595443070234</v>
+        <v>0.4127530405210251</v>
       </c>
       <c r="G23">
-        <v>0.3276666729219215</v>
+        <v>0.3484330997978446</v>
       </c>
       <c r="H23">
-        <v>0.001520031443955183</v>
+        <v>0.001494211671731582</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2734828672691307</v>
+        <v>0.2104704794477854</v>
       </c>
       <c r="K23">
-        <v>0.2911558393542677</v>
+        <v>0.2440645984306791</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1176463596592168</v>
       </c>
       <c r="M23">
-        <v>1.654044066759013</v>
+        <v>0.07808205642293942</v>
       </c>
       <c r="N23">
-        <v>0.4570677880415843</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.686754990162427</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4656917183476423</v>
       </c>
       <c r="Q23">
-        <v>1.216460408089759</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.033090910673565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.660118051661755</v>
+        <v>1.633011601553449</v>
       </c>
       <c r="C24">
-        <v>0.1499311146881723</v>
+        <v>0.1536823179294871</v>
       </c>
       <c r="D24">
-        <v>0.1201033860823628</v>
+        <v>0.1267812660252616</v>
       </c>
       <c r="E24">
-        <v>0.1108307595751867</v>
+        <v>0.1038330732177997</v>
       </c>
       <c r="F24">
-        <v>0.441749820424846</v>
+        <v>0.4055850983476361</v>
       </c>
       <c r="G24">
-        <v>0.3117682021670376</v>
+        <v>0.2733328184233628</v>
       </c>
       <c r="H24">
-        <v>0.0003710768373139661</v>
+        <v>0.000443152750690734</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2735118279714399</v>
+        <v>0.278932676505093</v>
       </c>
       <c r="K24">
-        <v>0.2938653336830939</v>
+        <v>0.2599919752694717</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1284504296819442</v>
       </c>
       <c r="M24">
-        <v>1.427704407722814</v>
+        <v>0.0759008327864592</v>
       </c>
       <c r="N24">
-        <v>0.3953401247537585</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.458786697175725</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.4042576104484539</v>
       </c>
       <c r="Q24">
-        <v>1.182362527001359</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.071889683809147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.364650432461445</v>
+        <v>1.34673631006396</v>
       </c>
       <c r="C25">
-        <v>0.1425884400281774</v>
+        <v>0.1400173423220252</v>
       </c>
       <c r="D25">
-        <v>0.1013982241647398</v>
+        <v>0.1057764318474881</v>
       </c>
       <c r="E25">
-        <v>0.09751090824836339</v>
+        <v>0.09208453828972551</v>
       </c>
       <c r="F25">
-        <v>0.4093648905076179</v>
+        <v>0.3811302659958926</v>
       </c>
       <c r="G25">
-        <v>0.2973376798001084</v>
+        <v>0.2594409058963194</v>
       </c>
       <c r="H25">
-        <v>8.574406415773339E-06</v>
+        <v>3.820868776927E-07</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2751648790702106</v>
+        <v>0.287270417379041</v>
       </c>
       <c r="K25">
-        <v>0.2988853707425072</v>
+        <v>0.2691958132036412</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1378058652816101</v>
       </c>
       <c r="M25">
-        <v>1.183592057201651</v>
+        <v>0.07171169193905058</v>
       </c>
       <c r="N25">
-        <v>0.3289667802167884</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.20729887809523</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3369280132503008</v>
       </c>
       <c r="Q25">
-        <v>1.154714778658359</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.065159519441778</v>
       </c>
     </row>
   </sheetData>
